--- a/docs/artifacts/rules/dms-architect-rules-template.xlsx
+++ b/docs/artifacts/rules/dms-architect-rules-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niva/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary/repos/neat/docs/artifacts/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BECFE-921E-B046-B77C-ED61BCDE071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4199820-B353-FD41-9B3D-94E883A64599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{525ED13E-77EB-734B-94C6-09A3F1A16102}" name="tmp" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/niva/Downloads/tmp.csv" decimal="," thousands=" " tab="0" semicolon="1">
+    <textPr sourceFile="/Users/niva/Downloads/tmp.csv" decimal="," thousands=" " tab="0" semicolon="1">
       <textFields count="17">
         <textField/>
         <textField/>
@@ -244,9 +244,6 @@
     <t>Specifies under which property instances of given class/view property are being stored under</t>
   </si>
   <si>
-    <t>Indicates which property is used as a part of index (takes name of property)</t>
-  </si>
-  <si>
     <t>Constraint for given property</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>Constraint to be applied on the container being defined</t>
+  </si>
+  <si>
+    <t>The name of the index the property is part of</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -8056,7 +8056,7 @@
     <col min="8" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="48">
+    <row r="1" spans="1:25" ht="32">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -9120,8 +9120,8 @@
   </sheetPr>
   <dimension ref="A1:X928"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -9166,7 +9166,7 @@
         <v>57</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>58</v>
@@ -9178,16 +9178,16 @@
         <v>60</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="P1" s="10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1">
@@ -22243,16 +22243,16 @@
         <v>41</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
